--- a/src/test/java/com/example/simplezakka/結合テスト/3.注文機能/結合テスト＿注文機能.xlsx
+++ b/src/test/java/com/example/simplezakka/結合テスト/3.注文機能/結合テスト＿注文機能.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etsu.miura\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{069A50EC-9F3B-41DE-8C0C-6100DED52B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E94435-BFD3-4778-8A25-043FE55EDE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="3" xr2:uid="{8CEC173A-4EB4-4126-9490-BBE75973B033}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="4" xr2:uid="{8CEC173A-4EB4-4126-9490-BBE75973B033}"/>
   </bookViews>
   <sheets>
-    <sheet name="3-1_単品注文" sheetId="1" r:id="rId1"/>
-    <sheet name="3-2_複数商品注文" sheetId="2" r:id="rId2"/>
-    <sheet name="3-3_在庫数と同値の注文" sheetId="3" r:id="rId3"/>
-    <sheet name="3-4,5,7,8,9_異常" sheetId="4" r:id="rId4"/>
+    <sheet name="3-1" sheetId="1" r:id="rId1"/>
+    <sheet name="3-2" sheetId="2" r:id="rId2"/>
+    <sheet name="3-3" sheetId="3" r:id="rId3"/>
+    <sheet name="3-4~9" sheetId="4" r:id="rId4"/>
+    <sheet name="3-10~12" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,9 +39,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>https://gyazo.com/98947d47d4170df3714594ce828c7630</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +60,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -74,17 +92,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,6 +673,316 @@
         <a:xfrm>
           <a:off x="18491200" y="0"/>
           <a:ext cx="9220200" cy="5250392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>340180</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F3551D-415D-422D-9FE5-862E278DDE9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="1"/>
+          <a:ext cx="8925379" cy="5030780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>261470</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C91CB89-B496-4972-ACA8-15206E4D902D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9245600" y="0"/>
+          <a:ext cx="8846670" cy="5074840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>221192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E48C86-3AED-441D-9A93-8CE73D9BE5BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18491200" y="0"/>
+          <a:ext cx="9220200" cy="5250392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>138544</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>92085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0966C55C-C58C-4A28-B076-77C83F04FEA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5257800"/>
+          <a:ext cx="8723744" cy="4892685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>45497</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85102747-82CD-3E1E-B611-B6B9A5498447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9245600" y="5257800"/>
+          <a:ext cx="8839200" cy="5074697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1036,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB78FA83-8B52-4916-A7F0-9EA5142DC710}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" workbookViewId="0">
-      <selection activeCell="AC52" sqref="AC52"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1046,4 +1381,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18480A45-849F-48DC-B4C9-199CC40536B8}">
+  <dimension ref="O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AA65" sqref="AA65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="25" spans="15:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="O25" r:id="rId1" xr:uid="{1EA1B053-3303-4E1B-B175-507185C3FC61}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>